--- a/AmilFreight/src/test/resources/TestData.xlsx
+++ b/AmilFreight/src/test/resources/TestData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" tabRatio="660" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="11175" tabRatio="800"/>
   </bookViews>
   <sheets>
-    <sheet name="Amil_User" sheetId="4" r:id="rId1"/>
+    <sheet name="AmilUsers" sheetId="4" r:id="rId1"/>
     <sheet name="MailReceipents" sheetId="8" r:id="rId2"/>
     <sheet name="CarrierSignUp" sheetId="9" r:id="rId3"/>
     <sheet name="ShipperAdd1" sheetId="10" r:id="rId4"/>
@@ -20,8 +20,11 @@
     <sheet name="Notes_Ship" sheetId="19" r:id="rId11"/>
     <sheet name="LoadBoard" sheetId="20" r:id="rId12"/>
     <sheet name="DuplicatShip" sheetId="21" r:id="rId13"/>
+    <sheet name="TaskMgnt" sheetId="22" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H24"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,32 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="344">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>PatientName</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Con_Amount</t>
-  </si>
-  <si>
-    <t>Amil_User_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>admin@ebintl.com</t>
-  </si>
-  <si>
     <t>Trailer Type</t>
   </si>
   <si>
@@ -673,9 +661,6 @@
     <t>Norfolk Iron &amp; Metal</t>
   </si>
   <si>
-    <t>4565495</t>
-  </si>
-  <si>
     <t>LoadBoard_1</t>
   </si>
   <si>
@@ -769,36 +754,12 @@
     <t>GUID</t>
   </si>
   <si>
-    <t>AFS20010200012</t>
-  </si>
-  <si>
     <t>7e26cb78-34a1-455b-80f4-7a17f9766c7d</t>
   </si>
   <si>
     <t>AFS20010200011</t>
   </si>
   <si>
-    <t>AFS20010200010</t>
-  </si>
-  <si>
-    <t>AFS20010200009</t>
-  </si>
-  <si>
-    <t>AFS20010200008</t>
-  </si>
-  <si>
-    <t>AFS20010200007</t>
-  </si>
-  <si>
-    <t>AFS20010200006</t>
-  </si>
-  <si>
-    <t>AFS20010200005</t>
-  </si>
-  <si>
-    <t>AFS20010200004</t>
-  </si>
-  <si>
     <t>AFS20010200003</t>
   </si>
   <si>
@@ -821,6 +782,291 @@
   </si>
   <si>
     <t>82139f31-3b24-4fd7-a11d-9bbfca2683fd</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>qcaccountlead</t>
+  </si>
+  <si>
+    <t>qcaccountexe</t>
+  </si>
+  <si>
+    <t>qcsalesmanager</t>
+  </si>
+  <si>
+    <t>qcsalesrep</t>
+  </si>
+  <si>
+    <t>qcsaleshead</t>
+  </si>
+  <si>
+    <t>qccarrierexe</t>
+  </si>
+  <si>
+    <t>qcshipper</t>
+  </si>
+  <si>
+    <t>qcdriver</t>
+  </si>
+  <si>
+    <t>qcdispatcher</t>
+  </si>
+  <si>
+    <t>Account_Lead</t>
+  </si>
+  <si>
+    <t>Accounts_Executive</t>
+  </si>
+  <si>
+    <t>Sales_Manager</t>
+  </si>
+  <si>
+    <t>Sales_Head</t>
+  </si>
+  <si>
+    <t>Carrier_Executive</t>
+  </si>
+  <si>
+    <t>Shipper</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>qcaccounthead</t>
+  </si>
+  <si>
+    <t>Account_Head</t>
+  </si>
+  <si>
+    <t>AFS20011300002</t>
+  </si>
+  <si>
+    <t>007621ff-3b00-43f7-a7cc-4c019e3407b2</t>
+  </si>
+  <si>
+    <t>AFS20011300003</t>
+  </si>
+  <si>
+    <t>edfe3cda-97e9-4512-b179-839c2fb1e953</t>
+  </si>
+  <si>
+    <t>AFS20011300004</t>
+  </si>
+  <si>
+    <t>85a5a18b-167e-4938-bf0f-40ad2bb06044</t>
+  </si>
+  <si>
+    <t>AFS20011300005</t>
+  </si>
+  <si>
+    <t>8fca4b3b-4338-4d25-9185-2340da3bba3e</t>
+  </si>
+  <si>
+    <t>AFS20011300006</t>
+  </si>
+  <si>
+    <t>07a0a168-ea28-4e64-8b75-d6f0c5962c97</t>
+  </si>
+  <si>
+    <t>AFS20011300007</t>
+  </si>
+  <si>
+    <t>fc571eda-e405-414a-916e-e3119355ab3d</t>
+  </si>
+  <si>
+    <t>AFS20011300008</t>
+  </si>
+  <si>
+    <t>c71f83a6-1088-461e-afb9-12050692f6a0</t>
+  </si>
+  <si>
+    <t>AFS20011300009</t>
+  </si>
+  <si>
+    <t>4e1649b1-5ca7-4b30-bbc1-940979349089</t>
+  </si>
+  <si>
+    <t>AFS20011300010</t>
+  </si>
+  <si>
+    <t>c5cfd199-4fd5-401d-bf19-9b91c6dd367a</t>
+  </si>
+  <si>
+    <t>AFS20011300011</t>
+  </si>
+  <si>
+    <t>e74759f4-b5d7-4954-aee0-6376e1988054</t>
+  </si>
+  <si>
+    <t>Task_Type</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>AssignTo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TaskMgnt_1</t>
+  </si>
+  <si>
+    <t>TaskMgnt_2</t>
+  </si>
+  <si>
+    <t>TaskMgnt_3</t>
+  </si>
+  <si>
+    <t>TaskMgnt_4</t>
+  </si>
+  <si>
+    <t>TaskMgnt_5</t>
+  </si>
+  <si>
+    <t>TaskMgnt_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Phone Call</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Things to Know About Activities</t>
+  </si>
+  <si>
+    <t>Activity Timeline</t>
+  </si>
+  <si>
+    <t>Activity Reminders and Notifications</t>
+  </si>
+  <si>
+    <t>View Archived Activities</t>
+  </si>
+  <si>
+    <t>Set Up Activities for Your Sales Reps</t>
+  </si>
+  <si>
+    <t>Events and Calendars</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>LPS Industries, LLC</t>
+  </si>
+  <si>
+    <t>WINDSOR FROZEN FOODS</t>
+  </si>
+  <si>
+    <t>Romac Industrial Parts, Inc.</t>
+  </si>
+  <si>
+    <t>Caraustar Industries</t>
+  </si>
+  <si>
+    <t>Super Stores Industries</t>
+  </si>
+  <si>
+    <t>Mitsubishi Heavy Industrial Climate Control</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>Quotation Mail Initiated - PC</t>
+  </si>
+  <si>
+    <t>No Response Received Yet - FU</t>
+  </si>
+  <si>
+    <t>Quotation Mail Initiated - OT</t>
+  </si>
+  <si>
+    <t>No Response Received Yet - ME</t>
+  </si>
+  <si>
+    <t>Quotation Mail Initiated - RE</t>
+  </si>
+  <si>
+    <t>No Response Received Yet - EM</t>
+  </si>
+  <si>
+    <t>QCSalesManager</t>
+  </si>
+  <si>
+    <t>SalesRep001</t>
+  </si>
+  <si>
+    <t>Follow Up</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>4565498</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Mit</t>
+  </si>
+  <si>
+    <t>Tex</t>
+  </si>
+  <si>
+    <t>SalesRep002</t>
+  </si>
+  <si>
+    <t>admin1@ebintl.com</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1076,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,13 +1109,6 @@
     <font>
       <b/>
       <sz val="10.5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -956,8 +1195,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1280,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1040,19 +1305,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1153,57 +1405,51 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,13 +1472,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,58 +1494,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,8 +1558,28 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -6827,7 +7093,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -6840,6 +7106,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -6854,7 +7126,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10.5"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -6865,16 +7137,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -6885,7 +7167,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6899,6 +7181,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -6923,8 +7207,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -6934,6 +7221,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -6968,7 +7261,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -7025,12 +7318,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D12" totalsRowShown="0" headerRowDxfId="228" dataDxfId="226" headerRowBorderDxfId="227" tableBorderDxfId="225">
+  <autoFilter ref="A1:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="TestCaseName" dataDxfId="224"/>
-    <tableColumn id="2" name="PatientName" dataDxfId="223" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Con_Amount" dataDxfId="222"/>
+    <tableColumn id="2" name="UserName" dataDxfId="223" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Password" dataDxfId="222" dataCellStyle="Hyperlink"/>
     <tableColumn id="12" name="Result" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7597,7 +7890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7605,52 +7898,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="22.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="10.85546875" collapsed="true"/>
-    <col min="5" max="16384" style="4" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="17.7109375" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" s="58" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7662,7 +8095,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -7670,235 +8103,235 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="43" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="43" width="24.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="43" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="43" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="43" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="43" width="35.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="43" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="43" width="25.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="43" width="34.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="43" width="19.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="43" width="23.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="43" width="34.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="43" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="43" width="26.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="43" width="35.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="43" width="27.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="43" width="22.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="43" width="35.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="43" width="20.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="43" width="25.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="43" width="34.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="43" width="19.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="43" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="43" width="35.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="43" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="43" width="19.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="43" width="35.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="43" width="20.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="43" width="19.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="43" width="34.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="43" width="15.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="43" width="10.42578125" collapsed="true"/>
-    <col min="33" max="16384" style="43" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.7109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34.7109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35.28515625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.7109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="35.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="35.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.7109375" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.28515625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="34.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="9.140625" style="39" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:32" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="L1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="38" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="E2" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="H2" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB1" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD1" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="K2" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="L2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="M2" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="N2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="O2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="P2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="Q2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="R2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="S2" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="T2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="U2" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="V2" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="W2" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="X2" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="Y2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="Z2" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="AA2" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="AB2" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="AC2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="AD2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="Z2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC2" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="53" t="s">
-        <v>130</v>
+      <c r="AE2" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7929,58 +8362,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>2</v>
+      <c r="F1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="56"/>
+      <c r="A2" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7992,319 +8425,319 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="37" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>2</v>
+      <c r="G1" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="59"/>
+      <c r="A2" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="59"/>
+      <c r="A3" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" s="59"/>
+      <c r="A4" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="59"/>
+      <c r="A5" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="59"/>
+      <c r="D6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I7" s="59"/>
+      <c r="A7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="59"/>
+      <c r="A8" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" s="59"/>
+      <c r="A9" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I10" s="59"/>
+      <c r="A10" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I11" s="59"/>
+      <c r="A11" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8315,105 +8748,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>2</v>
+      <c r="G1" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="59"/>
+      <c r="A2" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="59"/>
+      <c r="A3" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.85546875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8425,124 +9151,124 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="15.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="14" width="35.5703125" collapsed="true"/>
-    <col min="12" max="14" customWidth="true" style="37" width="35.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.5703125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="35.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>130</v>
+      <c r="P2" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8559,7 +9285,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8567,123 +9293,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="24.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="16.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="28" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="28" width="17.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="28" width="17.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="28" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="28" width="25.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="28" width="13.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="28" width="12.85546875" collapsed="true"/>
-    <col min="17" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>52</v>
+      <c r="O1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="N2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>44</v>
+      <c r="P2" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -8702,99 +9428,99 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="29" width="21.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="29" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5703125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="L1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="F2" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="J2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>130</v>
+      <c r="L2" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8819,129 +9545,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="J2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="20" t="s">
+      <c r="L2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="20" t="s">
+      <c r="N2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="26" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8967,157 +9693,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="R1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="S1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="T1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="U1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="G2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="J2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="L2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="T2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9136,106 +9862,106 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9251,7 +9977,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -9259,235 +9985,235 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="24.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="33.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="28" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="28" width="33.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="39" width="20.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="39" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="39" width="33.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="28" width="24.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="28" width="33.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="28" width="21.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="28" width="20.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="28" width="35.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="28" width="20.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="28" width="18.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="28" width="33.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="28" width="20.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="28" width="19.5703125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="28" width="33.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="28" width="24.85546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="28" width="33.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="28" width="15.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="28" width="10.85546875" collapsed="true"/>
-    <col min="33" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="33" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="33" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="35" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="33.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="33.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="24.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="26.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="33" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:32" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="L1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="38" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="E2" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="H2" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB1" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD1" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="42" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="K2" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="L2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="M2" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="N2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="O2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="P2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="Q2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="R2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="S2" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="T2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="U2" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="V2" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="W2" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="X2" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="Y2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="Z2" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="AA2" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="AB2" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="AC2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="AD2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="Z2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC2" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="54" t="s">
-        <v>130</v>
+      <c r="AE2" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -9517,214 +10243,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="24.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="17.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="36.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="32.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="28" width="29.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="36.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
-    <col min="11" max="16" style="39" width="9.140625" collapsed="true"/>
-    <col min="17" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="9.140625" style="35" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="Q1" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="R1" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="S1" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="T1" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="U1" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="V1" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="W1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="X1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="Y1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="Z1" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="AA1" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="AB1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="AC1" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="AD1" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA1" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB1" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC1" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD1" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="46" t="s">
-        <v>2</v>
+      <c r="AE1" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="G2" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="K2" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="L2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="M2" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="N2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="O2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="P2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="Q2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="R2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="S2" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="T2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="U2" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="V2" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="W2" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="X2" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="Y2" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="Z2" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="AA2" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="AB2" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="AC2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="AD2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="Z2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC2" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD2" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="53" t="s">
-        <v>130</v>
+      <c r="AE2" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
